--- a/SANA.xlsx
+++ b/SANA.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0679B-5AA6-4C80-8AE7-352FEEA5707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA50D1-0B7D-45EB-A3E1-D67FC22A5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30825" yWindow="2205" windowWidth="19845" windowHeight="16215" xr2:uid="{8248D471-1741-4422-847A-FF082CB022AF}"/>
+    <workbookView xWindow="-46575" yWindow="540" windowWidth="23625" windowHeight="19635" xr2:uid="{8248D471-1741-4422-847A-FF082CB022AF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="SC291" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Price</t>
   </si>
@@ -74,9 +75,6 @@
     <t>Indication</t>
   </si>
   <si>
-    <t>Autoimmune, T1D</t>
-  </si>
-  <si>
     <t>B-cell Cancer</t>
   </si>
   <si>
@@ -87,14 +85,71 @@
   </si>
   <si>
     <t>CEO: Steve Harr</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Allogeneic CART</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>"GLEAM" in autoimmune - report by YE</t>
+  </si>
+  <si>
+    <t>"ARDENT" oncology</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>UP421</t>
+  </si>
+  <si>
+    <t>T1D</t>
+  </si>
+  <si>
+    <t>Autoimmune</t>
+  </si>
+  <si>
+    <t>CD22</t>
+  </si>
+  <si>
+    <t>CD19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -109,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,19 +172,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,22 +622,27 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
@@ -491,12 +651,19 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -508,9 +675,17 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="6"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
@@ -520,12 +695,19 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -538,6 +720,17 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -549,6 +742,11 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -581,10 +779,71 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34E3056-D70D-4058-A43C-85CB1A05A75A}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{BFB79933-E75E-47BE-8EE3-AEC714CB2958}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SANA.xlsx
+++ b/SANA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFA50D1-0B7D-45EB-A3E1-D67FC22A5D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9633EC31-9ABA-4DCF-8201-FD7EA595D3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46575" yWindow="540" windowWidth="23625" windowHeight="19635" xr2:uid="{8248D471-1741-4422-847A-FF082CB022AF}"/>
+    <workbookView xWindow="-25440" yWindow="270" windowWidth="25080" windowHeight="19755" xr2:uid="{8248D471-1741-4422-847A-FF082CB022AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -271,7 +271,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -281,7 +280,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,7 +620,7 @@
   <dimension ref="B2:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,38 +630,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>4.08</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="5"/>
       <c r="H3" t="s">
         <v>1</v>
       </c>
@@ -676,38 +674,38 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="H4" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="2">
         <f>+I2*I3</f>
-        <v>907.80000000000007</v>
+        <v>1317.2</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -723,14 +721,13 @@
       <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="H6" t="s">
         <v>4</v>
       </c>
@@ -742,17 +739,17 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
       <c r="H7" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2">
         <f>+I4-I5+I6</f>
-        <v>656.15700000000004</v>
+        <v>1065.557</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -800,7 +797,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -831,12 +828,12 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
     </row>
